--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\03_Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E338DD3C-DEAE-4B40-8A2E-43C0693306BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51980345-0C2E-4364-B1CC-65C43C1AC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>TMC2240</t>
   </si>
@@ -365,12 +365,88 @@
       <t>,  Two-level overtemperature protection</t>
     </r>
   </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>TB67S105FTG</t>
+  </si>
+  <si>
+    <t>8bit shift register</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thermal shutdown (TSD), over current shutdown (ISD), and power on reset(POR), Chopping frequency of a motor can be customized, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">full and half step </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 bit (16 steps) adjustable torque function</t>
+    </r>
+  </si>
+  <si>
+    <t>TB67S265FTG</t>
+  </si>
+  <si>
+    <t>TB62214AFG</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>n (TSD), overcurrent shutdown (ISD), and  power-on-resets (PORs)</t>
+  </si>
+  <si>
+    <t>half, quarter, 1/8, 1/16, 1/32 step operation, (Advanced  Dynamic Mixed Decay),  Error detection (TSD/ISD)</t>
+  </si>
+  <si>
+    <t>TB67S269FTG</t>
+  </si>
+  <si>
+    <t>TB62208FTG</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>(octoparts)22</t>
+  </si>
+  <si>
+    <t>(octoparts)1.35</t>
+  </si>
+  <si>
+    <t>(octoparts)1.482</t>
+  </si>
+  <si>
+    <t>(octoparts)1.32</t>
+  </si>
+  <si>
+    <t>(octoparts)1.45</t>
+  </si>
+  <si>
+    <t>Preis octoparts 4 - 5 dollar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +465,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,16 +535,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,23 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,22 +856,22 @@
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -814,18 +890,18 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -844,21 +920,21 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -877,21 +953,24 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="16" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,21 +989,21 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -943,19 +1022,19 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -974,21 +1053,21 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1007,21 +1086,21 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1040,36 +1119,36 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1088,18 +1167,18 @@
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1112,26 +1191,26 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1152,16 +1231,16 @@
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1178,16 +1257,16 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1202,16 +1281,16 @@
       <c r="F19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1226,31 +1305,31 @@
       <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1271,18 +1350,18 @@
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1298,16 +1377,16 @@
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="6" t="s">
         <v>68</v>
       </c>
@@ -1334,44 +1413,38 @@
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="40" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1392,16 +1465,16 @@
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1419,28 +1492,28 @@
       <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1461,16 +1534,16 @@
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1488,21 +1561,21 @@
       <c r="E49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
       <c r="Q49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>79</v>
       </c>
@@ -1519,21 +1592,21 @@
         <v>53</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="18" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -1549,16 +1622,16 @@
       <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
       <c r="O51" s="1" t="s">
         <v>86</v>
       </c>
@@ -1582,16 +1655,16 @@
       <c r="E52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
       <c r="Q52" t="s">
         <v>89</v>
       </c>
@@ -1612,16 +1685,16 @@
       <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1639,36 +1712,275 @@
       <c r="E54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1">
+        <v>50</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="1">
+        <v>50</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="1">
+        <v>40</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="1">
+        <v>50</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="1">
+        <v>40</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
     </row>
     <row r="112" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="G112:N112"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="G50:N50"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="G52:N52"/>
-    <mergeCell ref="G53:N53"/>
+  <mergeCells count="46">
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="G68:N68"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="G70:N70"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G18:N18"/>
     <mergeCell ref="G45:N45"/>
     <mergeCell ref="G48:N48"/>
     <mergeCell ref="A46:C47"/>
@@ -1685,19 +1997,24 @@
     <mergeCell ref="G8:N8"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G17:N17"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="G112:N112"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="G50:N50"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="G52:N52"/>
+    <mergeCell ref="G53:N53"/>
+    <mergeCell ref="G71:N71"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G78:N78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51980345-0C2E-4364-B1CC-65C43C1AC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F8BA8-B7D5-406A-AB90-AFB479A343BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
   <si>
     <t>TMC2240</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Preis octoparts 4 - 5 dollar</t>
+  </si>
+  <si>
+    <t>Encoder Empfänger</t>
   </si>
 </sst>
 </file>
@@ -548,20 +551,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,19 +860,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -890,16 +893,16 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -953,16 +956,16 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="7" t="s">
         <v>83</v>
       </c>
@@ -1134,19 +1137,19 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1167,16 +1170,16 @@
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1201,16 +1204,16 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1231,16 +1234,16 @@
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1257,16 +1260,16 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1320,16 +1323,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1350,16 +1353,16 @@
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1377,16 +1380,16 @@
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="6" t="s">
         <v>68</v>
       </c>
@@ -1435,16 +1438,16 @@
       <c r="N40" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1465,16 +1468,16 @@
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1504,16 +1507,16 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1534,16 +1537,16 @@
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1622,16 +1625,16 @@
       <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
       <c r="O51" s="1" t="s">
         <v>86</v>
       </c>
@@ -1724,16 +1727,16 @@
       <c r="N54" s="10"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -1754,16 +1757,16 @@
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1851,7 +1854,7 @@
       <c r="E72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="12" t="s">
         <v>109</v>
       </c>
       <c r="H72" s="10"/>
@@ -1954,6 +1957,11 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="112" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -1966,24 +1974,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G18:N18"/>
     <mergeCell ref="A66:C67"/>
     <mergeCell ref="G68:N68"/>
     <mergeCell ref="G69:N69"/>
-    <mergeCell ref="G70:N70"/>
     <mergeCell ref="G19:N19"/>
     <mergeCell ref="G20:N20"/>
     <mergeCell ref="G31:N31"/>
     <mergeCell ref="G40:N40"/>
     <mergeCell ref="G33:N33"/>
     <mergeCell ref="G32:N32"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="G18:N18"/>
     <mergeCell ref="G45:N45"/>
     <mergeCell ref="G48:N48"/>
     <mergeCell ref="A46:C47"/>
+    <mergeCell ref="G54:N54"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A42:C43"/>
     <mergeCell ref="G44:N44"/>
@@ -1997,7 +2002,9 @@
     <mergeCell ref="G8:N8"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="A15:C16"/>
     <mergeCell ref="G112:N112"/>
     <mergeCell ref="G49:N49"/>
     <mergeCell ref="G50:N50"/>
@@ -2012,6 +2019,7 @@
     <mergeCell ref="G76:N76"/>
     <mergeCell ref="G77:N77"/>
     <mergeCell ref="G78:N78"/>
+    <mergeCell ref="G70:N70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CECD82-A235-41EC-B4AC-782AB3274D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38417C4-D8CB-433A-B286-BAB43E40CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="148">
   <si>
     <t>TMC2240</t>
   </si>
@@ -526,12 +526,24 @@
   <si>
     <t>Trinamic Suche - ohne Endstufe</t>
   </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>TSSOP38</t>
+  </si>
+  <si>
+    <t>TQFN32 </t>
+  </si>
+  <si>
+    <t>ähnlich: TMC2240, aber ohne Inputs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +578,11 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inter"/>
     </font>
   </fonts>
   <fills count="5">
@@ -606,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,26 +655,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,35 +956,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="13" width="17.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -985,18 +1006,18 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,21 +1036,21 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1048,24 +1069,33 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="R5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,21 +1114,21 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1117,19 +1147,19 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1148,21 +1178,21 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1181,45 +1211,45 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="C11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="C12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1238,63 +1268,63 @@
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="C14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:25">
+      <c r="A15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+    <row r="16" spans="1:25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
@@ -1313,19 +1343,19 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
@@ -1344,19 +1374,19 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>119</v>
       </c>
@@ -1375,86 +1405,86 @@
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="C20" s="3"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="C21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="C22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1473,18 +1503,18 @@
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,61 +1527,61 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:15">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1570,18 +1600,18 @@
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -1596,18 +1626,18 @@
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1620,18 +1650,18 @@
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1644,33 +1674,33 @@
       <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
       <c r="O43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:16">
+      <c r="A52" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1689,18 +1719,18 @@
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1719,16 +1749,16 @@
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="6" t="s">
         <v>66</v>
       </c>
@@ -1736,7 +1766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>140</v>
       </c>
@@ -1755,19 +1785,19 @@
       <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -1786,28 +1816,28 @@
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -1826,18 +1856,18 @@
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -1856,18 +1886,18 @@
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -1886,40 +1916,40 @@
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -1938,18 +1968,18 @@
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1965,30 +1995,30 @@
       <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -2007,18 +2037,18 @@
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2034,21 +2064,21 @@
       <c r="E73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="12" t="s">
+      <c r="G73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
       <c r="Q73" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -2065,21 +2095,21 @@
         <v>53</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -2095,16 +2125,16 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="1" t="s">
         <v>84</v>
       </c>
@@ -2112,7 +2142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -2128,21 +2158,21 @@
       <c r="E76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
       <c r="Q76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -2158,18 +2188,18 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -2185,30 +2215,30 @@
       <c r="E78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -2227,18 +2257,18 @@
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -2257,18 +2287,18 @@
       <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -2287,28 +2317,28 @@
       <c r="F94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -2324,18 +2354,18 @@
       <c r="E96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -2351,18 +2381,18 @@
       <c r="E97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -2378,86 +2408,105 @@
       <c r="E98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
+    <row r="136" spans="7:14">
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A90:C91"/>
-    <mergeCell ref="G92:N92"/>
-    <mergeCell ref="G93:N93"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="G72:N72"/>
-    <mergeCell ref="A70:C71"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="G96:N96"/>
+    <mergeCell ref="G97:N97"/>
+    <mergeCell ref="G98:N98"/>
+    <mergeCell ref="G99:N99"/>
+    <mergeCell ref="G100:N100"/>
+    <mergeCell ref="G101:N101"/>
+    <mergeCell ref="G102:N102"/>
+    <mergeCell ref="G94:N94"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A66:C67"/>
     <mergeCell ref="G68:N68"/>
@@ -2474,41 +2523,22 @@
     <mergeCell ref="A23:C24"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="A38:C39"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G95:N95"/>
-    <mergeCell ref="G96:N96"/>
-    <mergeCell ref="G97:N97"/>
-    <mergeCell ref="G98:N98"/>
-    <mergeCell ref="G99:N99"/>
-    <mergeCell ref="G100:N100"/>
-    <mergeCell ref="G101:N101"/>
-    <mergeCell ref="G102:N102"/>
-    <mergeCell ref="G94:N94"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="A90:C91"/>
+    <mergeCell ref="G92:N92"/>
+    <mergeCell ref="G93:N93"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="A70:C71"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="G60:N60"/>
     <mergeCell ref="G61:N61"/>
     <mergeCell ref="G56:N56"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38417C4-D8CB-433A-B286-BAB43E40CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6EA0F-C1E8-4DBC-B340-C24127BF3D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -654,28 +654,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,16 +1006,16 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
@@ -1036,16 +1036,16 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1069,16 +1069,16 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="V5" t="s">
         <v>145</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="12" t="s">
         <v>146</v>
       </c>
       <c r="Y5" t="s">
@@ -1114,16 +1114,16 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1178,16 +1178,16 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1211,42 +1211,42 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="C11" s="3"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:25">
       <c r="C12" s="3"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:25">
@@ -1268,30 +1268,30 @@
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="C14" s="3"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:25">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15">
@@ -1343,16 +1343,16 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
@@ -1374,16 +1374,16 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
@@ -1405,52 +1405,52 @@
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="C20" s="3"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" s="3"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15">
       <c r="C22" s="3"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15">
@@ -1462,27 +1462,27 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
@@ -1503,16 +1503,16 @@
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
@@ -1527,14 +1527,14 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3"/>
@@ -1600,16 +1600,16 @@
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
@@ -1626,16 +1626,16 @@
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
@@ -1650,16 +1650,16 @@
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
@@ -1674,16 +1674,16 @@
       <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
       <c r="O43" t="s">
         <v>59</v>
       </c>
@@ -1719,16 +1719,16 @@
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
@@ -1749,16 +1749,16 @@
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="6" t="s">
         <v>66</v>
       </c>
@@ -1785,16 +1785,16 @@
       <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="11"/>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1">
@@ -1816,26 +1816,26 @@
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
@@ -1856,16 +1856,16 @@
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
@@ -1886,16 +1886,16 @@
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
@@ -1916,38 +1916,38 @@
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
@@ -1968,16 +1968,16 @@
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
@@ -1995,28 +1995,28 @@
       <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
@@ -2037,16 +2037,16 @@
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
@@ -2064,16 +2064,16 @@
       <c r="E73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
       <c r="Q73" t="s">
         <v>87</v>
       </c>
@@ -2095,16 +2095,16 @@
         <v>53</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="8" t="s">
         <v>81</v>
       </c>
@@ -2125,16 +2125,16 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="1" t="s">
         <v>84</v>
       </c>
@@ -2158,16 +2158,16 @@
       <c r="E76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
       <c r="Q76" t="s">
         <v>87</v>
       </c>
@@ -2188,16 +2188,16 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
@@ -2215,28 +2215,28 @@
       <c r="E78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
@@ -2257,16 +2257,16 @@
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
@@ -2287,16 +2287,16 @@
       <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
@@ -2317,26 +2317,26 @@
       <c r="F94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
@@ -2354,16 +2354,16 @@
       <c r="E96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="G96" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
@@ -2381,16 +2381,16 @@
       <c r="E97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
@@ -2408,54 +2408,54 @@
       <c r="E98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
@@ -2463,50 +2463,33 @@
       </c>
     </row>
     <row r="136" spans="7:14">
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G95:N95"/>
-    <mergeCell ref="G96:N96"/>
-    <mergeCell ref="G97:N97"/>
-    <mergeCell ref="G98:N98"/>
-    <mergeCell ref="G99:N99"/>
-    <mergeCell ref="G100:N100"/>
-    <mergeCell ref="G101:N101"/>
-    <mergeCell ref="G102:N102"/>
-    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="A90:C91"/>
+    <mergeCell ref="G92:N92"/>
+    <mergeCell ref="G93:N93"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="A70:C71"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G56:N56"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A66:C67"/>
     <mergeCell ref="G68:N68"/>
@@ -2523,22 +2506,39 @@
     <mergeCell ref="A23:C24"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A90:C91"/>
-    <mergeCell ref="G92:N92"/>
-    <mergeCell ref="G93:N93"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="G72:N72"/>
-    <mergeCell ref="A70:C71"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="G96:N96"/>
+    <mergeCell ref="G97:N97"/>
+    <mergeCell ref="G98:N98"/>
+    <mergeCell ref="G99:N99"/>
+    <mergeCell ref="G100:N100"/>
+    <mergeCell ref="G101:N101"/>
+    <mergeCell ref="G102:N102"/>
+    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6EA0F-C1E8-4DBC-B340-C24127BF3D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD1B81-423D-4355-A73A-023826FDEC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -656,25 +656,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,11 +970,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,9 +983,9 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
@@ -1036,16 +1036,16 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1069,16 +1069,16 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
@@ -1114,16 +1114,16 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1178,16 +1178,16 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1211,42 +1211,42 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="C11" s="3"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:25">
       <c r="C12" s="3"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:25">
@@ -1268,60 +1268,60 @@
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="C14" s="3"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15">
@@ -1343,16 +1343,16 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
@@ -1374,16 +1374,16 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
@@ -1405,84 +1405,84 @@
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="C20" s="3"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" s="3"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15">
       <c r="C22" s="3"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
@@ -1527,14 +1527,14 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3"/>
@@ -1570,16 +1570,16 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
@@ -1626,16 +1626,16 @@
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
@@ -1650,16 +1650,16 @@
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
@@ -1674,31 +1674,31 @@
       <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
       <c r="O43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
@@ -1749,16 +1749,16 @@
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
       <c r="O55" s="6" t="s">
         <v>66</v>
       </c>
@@ -1816,26 +1816,26 @@
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
@@ -1856,16 +1856,16 @@
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
@@ -1886,16 +1886,16 @@
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
@@ -1916,38 +1916,38 @@
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
@@ -1995,28 +1995,28 @@
       <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
@@ -2064,16 +2064,16 @@
       <c r="E73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
       <c r="Q73" t="s">
         <v>87</v>
       </c>
@@ -2125,16 +2125,16 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
       <c r="O75" s="1" t="s">
         <v>84</v>
       </c>
@@ -2158,16 +2158,16 @@
       <c r="E76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
       <c r="Q76" t="s">
         <v>87</v>
       </c>
@@ -2188,16 +2188,16 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
@@ -2215,28 +2215,28 @@
       <c r="E78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
@@ -2287,16 +2287,16 @@
       <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
@@ -2317,26 +2317,26 @@
       <c r="F94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
@@ -2354,16 +2354,16 @@
       <c r="E96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
@@ -2381,16 +2381,16 @@
       <c r="E97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
@@ -2408,54 +2408,54 @@
       <c r="E98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
@@ -2463,17 +2463,66 @@
       </c>
     </row>
     <row r="136" spans="7:14">
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="G96:N96"/>
+    <mergeCell ref="G97:N97"/>
+    <mergeCell ref="G98:N98"/>
+    <mergeCell ref="G99:N99"/>
+    <mergeCell ref="G100:N100"/>
+    <mergeCell ref="G101:N101"/>
+    <mergeCell ref="G102:N102"/>
+    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="G68:N68"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="A52:C53"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A38:C39"/>
     <mergeCell ref="A90:C91"/>
     <mergeCell ref="G92:N92"/>
     <mergeCell ref="G93:N93"/>
@@ -2490,55 +2539,6 @@
     <mergeCell ref="G60:N60"/>
     <mergeCell ref="G61:N61"/>
     <mergeCell ref="G56:N56"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="G68:N68"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="A52:C53"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G95:N95"/>
-    <mergeCell ref="G96:N96"/>
-    <mergeCell ref="G97:N97"/>
-    <mergeCell ref="G98:N98"/>
-    <mergeCell ref="G99:N99"/>
-    <mergeCell ref="G100:N100"/>
-    <mergeCell ref="G101:N101"/>
-    <mergeCell ref="G102:N102"/>
-    <mergeCell ref="G94:N94"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/02_Recherche/03_Verschiedene_Chips.xlsx
+++ b/02_Recherche/03_Verschiedene_Chips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD1B81-423D-4355-A73A-023826FDEC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF80985-FBAE-4E52-B9FB-287DF115F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -656,25 +656,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,11 +970,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,9 +983,9 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
@@ -1036,16 +1036,16 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1069,16 +1069,16 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
@@ -1114,16 +1114,16 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1178,16 +1178,16 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1211,42 +1211,42 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="C11" s="3"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:25">
       <c r="C12" s="3"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:25">
@@ -1268,60 +1268,60 @@
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="C14" s="3"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15">
@@ -1343,16 +1343,16 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
@@ -1374,16 +1374,16 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
@@ -1405,84 +1405,84 @@
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="C20" s="3"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" s="3"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15">
       <c r="C22" s="3"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
@@ -1527,14 +1527,14 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3"/>
@@ -1570,16 +1570,16 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
@@ -1626,16 +1626,16 @@
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
@@ -1650,16 +1650,16 @@
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
@@ -1674,31 +1674,31 @@
       <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
       <c r="O43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
@@ -1749,16 +1749,16 @@
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="6" t="s">
         <v>66</v>
       </c>
@@ -1816,26 +1816,26 @@
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
@@ -1856,16 +1856,16 @@
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
@@ -1886,16 +1886,16 @@
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
@@ -1916,38 +1916,38 @@
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
@@ -1995,28 +1995,28 @@
       <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
@@ -2064,16 +2064,16 @@
       <c r="E73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
       <c r="Q73" t="s">
         <v>87</v>
       </c>
@@ -2125,16 +2125,16 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="1" t="s">
         <v>84</v>
       </c>
@@ -2158,16 +2158,16 @@
       <c r="E76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
       <c r="Q76" t="s">
         <v>87</v>
       </c>
@@ -2188,16 +2188,16 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
@@ -2215,28 +2215,28 @@
       <c r="E78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
@@ -2287,16 +2287,16 @@
       <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
@@ -2317,26 +2317,26 @@
       <c r="F94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
@@ -2354,16 +2354,16 @@
       <c r="E96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
@@ -2381,16 +2381,16 @@
       <c r="E97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="G97" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
@@ -2408,54 +2408,54 @@
       <c r="E98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
@@ -2463,50 +2463,33 @@
       </c>
     </row>
     <row r="136" spans="7:14">
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G95:N95"/>
-    <mergeCell ref="G96:N96"/>
-    <mergeCell ref="G97:N97"/>
-    <mergeCell ref="G98:N98"/>
-    <mergeCell ref="G99:N99"/>
-    <mergeCell ref="G100:N100"/>
-    <mergeCell ref="G101:N101"/>
-    <mergeCell ref="G102:N102"/>
-    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="A90:C91"/>
+    <mergeCell ref="G92:N92"/>
+    <mergeCell ref="G93:N93"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="A70:C71"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G56:N56"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A66:C67"/>
     <mergeCell ref="G68:N68"/>
@@ -2523,22 +2506,39 @@
     <mergeCell ref="A23:C24"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A90:C91"/>
-    <mergeCell ref="G92:N92"/>
-    <mergeCell ref="G93:N93"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="G72:N72"/>
-    <mergeCell ref="A70:C71"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="G96:N96"/>
+    <mergeCell ref="G97:N97"/>
+    <mergeCell ref="G98:N98"/>
+    <mergeCell ref="G99:N99"/>
+    <mergeCell ref="G100:N100"/>
+    <mergeCell ref="G101:N101"/>
+    <mergeCell ref="G102:N102"/>
+    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
